--- a/Utility/logindata.xlsx
+++ b/Utility/logindata.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SmartCliff_RobotFramework_Project\Utility\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\smartcliff_project\Smartcliff_RobotFramework_Project\Utility\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8822B21-D50F-40EB-8E7A-0F62FDA0D291}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6143A269-7A99-4AE2-8426-A9217B958889}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{F45ECD97-346C-4BA2-B362-A2663D16A9D0}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="3">
   <si>
     <t>smart@gmail.com</t>
   </si>
@@ -405,10 +405,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{371F0178-9731-4D0D-9B6A-D5FB4A29B4BD}">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -433,9 +433,23 @@
         <v>1234</v>
       </c>
     </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" s="1"/>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B5">
+        <v>1234</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A2" r:id="rId1" xr:uid="{9F5679C0-5BA9-4FCD-A8A9-A0D950252082}"/>
+    <hyperlink ref="A4" r:id="rId2" xr:uid="{2A8E102A-B6B4-419B-B044-8C1C42B7BC1E}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Utility/logindata.xlsx
+++ b/Utility/logindata.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SmartCliff_RobotFramework_Project\Utility\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Smartcliff-Robot-Framework\Smartcliff_RobotFramework_Project\Utility\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8822B21-D50F-40EB-8E7A-0F62FDA0D291}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{F45ECD97-346C-4BA2-B362-A2663D16A9D0}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12450"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -48,7 +47,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -404,20 +403,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{371F0178-9731-4D0D-9B6A-D5FB4A29B4BD}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.88671875" customWidth="1"/>
-    <col min="2" max="2" width="13.6640625" customWidth="1"/>
+    <col min="1" max="1" width="16.85546875" customWidth="1"/>
+    <col min="2" max="2" width="13.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -425,7 +424,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -435,7 +434,7 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" xr:uid="{9F5679C0-5BA9-4FCD-A8A9-A0D950252082}"/>
+    <hyperlink ref="A2" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Utility/logindata.xlsx
+++ b/Utility/logindata.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\smartcliff_project\Smartcliff_RobotFramework_Project\Utility\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6143A269-7A99-4AE2-8426-A9217B958889}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B6252CD-4A49-4DE1-8538-05A0DE9354FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{F45ECD97-346C-4BA2-B362-A2663D16A9D0}"/>
   </bookViews>
@@ -405,10 +405,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{371F0178-9731-4D0D-9B6A-D5FB4A29B4BD}">
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -446,6 +446,9 @@
         <v>1234</v>
       </c>
     </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" s="1"/>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A2" r:id="rId1" xr:uid="{9F5679C0-5BA9-4FCD-A8A9-A0D950252082}"/>
